--- a/Common/bin/project_template_docgen_simplified/media/tables.xlsx
+++ b/Common/bin/project_template_docgen_simplified/media/tables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\bin\project_template_docgen_simplified\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EB23A1-CE04-4117-90BF-F244EFB8A764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE3B024-3FDA-44B6-9A4B-604D5F8465A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="1605" windowWidth="21465" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="1395" windowWidth="21465" windowHeight="13425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="1" r:id="rId1"/>
+    <sheet name="chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="24">
   <si>
     <t>Susan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,12 +91,37 @@
     <t>@&lt;b&gt;@&lt;color:FF0000&gt;Marty@&lt;/color&gt;@&lt;/b&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Entity DCID</t>
+  </si>
+  <si>
+    <t>Entity properties name</t>
+  </si>
+  <si>
+    <t>Variable DCID</t>
+  </si>
+  <si>
+    <t>Variable observation date</t>
+  </si>
+  <si>
+    <t>Variable observation value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Count_Person</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +136,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,14 +166,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -150,6 +210,1271 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Population in the world</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variable observation value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart!$E$2:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>3031474234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3072421801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3126849612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3193428894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3260441925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3328209022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3398480280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3468370526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3540164023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3614572835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3690209960</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3767930001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3843607574</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3920017410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3995888368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4070022249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4143091942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4215826364</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4289795862</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4365742277</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4442348279</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4520917350</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4602701335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4684875627</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4766640881</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4850076923</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4936006502</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5024289346</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5113387878</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5202582534</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5293395467</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5382536929</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5470164577</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5556623321</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5642046034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5726736488</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5811580202</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5896055962</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5979726559</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6062288850</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6144321462</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6226348086</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6308140970</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6389462496</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6470924346</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6552700448</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6635110367</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6717567584</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6801440971</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6885663352</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6969985525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7054044372</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7141386257</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7229303088</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7317040295</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7403850164</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7490415449</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7576441961</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7660371127</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7741774583</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7820205606</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7888305693</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7950946801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52DF-4D2D-8D90-6995383599EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="74728736"/>
+        <c:axId val="74729216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74728736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74729216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74729216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74728736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC8173E-1942-4C8D-6F27-3005EA10A5F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -445,13 +1770,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -462,13 +1787,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="2"/>
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -477,7 +1802,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4">
@@ -501,4 +1826,1107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F9F768-E865-460C-8357-E00901A4C708}">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1960</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3031474234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1961</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3072421801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1962</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3126849612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1963</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3193428894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1964</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3260441925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1965</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3328209022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1966</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3398480280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1967</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3468370526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1968</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3540164023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1969</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3614572835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1970</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3690209960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1971</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3767930001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1972</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3843607574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1973</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3920017410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1974</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3995888368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1975</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4070022249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1976</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4143091942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1977</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4215826364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1978</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4289795862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1979</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4365742277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1980</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4442348279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1981</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4520917350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1982</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4602701335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1983</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4684875627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1984</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4766640881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1985</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4850076923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1986</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4936006502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1987</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5024289346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1988</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5113387878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1989</v>
+      </c>
+      <c r="E31" s="4">
+        <v>5202582534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1990</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5293395467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1991</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5382536929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1992</v>
+      </c>
+      <c r="E34" s="4">
+        <v>5470164577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1993</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5556623321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1994</v>
+      </c>
+      <c r="E36" s="4">
+        <v>5642046034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1995</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5726736488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1996</v>
+      </c>
+      <c r="E38" s="4">
+        <v>5811580202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1997</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5896055962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1998</v>
+      </c>
+      <c r="E40" s="4">
+        <v>5979726559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1999</v>
+      </c>
+      <c r="E41" s="4">
+        <v>6062288850</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="4">
+        <v>6144321462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2001</v>
+      </c>
+      <c r="E43" s="4">
+        <v>6226348086</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2002</v>
+      </c>
+      <c r="E44" s="4">
+        <v>6308140970</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2003</v>
+      </c>
+      <c r="E45" s="4">
+        <v>6389462496</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2004</v>
+      </c>
+      <c r="E46" s="4">
+        <v>6470924346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2005</v>
+      </c>
+      <c r="E47" s="4">
+        <v>6552700448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2006</v>
+      </c>
+      <c r="E48" s="4">
+        <v>6635110367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2007</v>
+      </c>
+      <c r="E49" s="4">
+        <v>6717567584</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2008</v>
+      </c>
+      <c r="E50" s="4">
+        <v>6801440971</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2009</v>
+      </c>
+      <c r="E51" s="4">
+        <v>6885663352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E52" s="4">
+        <v>6969985525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E53" s="4">
+        <v>7054044372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E54" s="4">
+        <v>7141386257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E55" s="4">
+        <v>7229303088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E56" s="4">
+        <v>7317040295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E57" s="4">
+        <v>7403850164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E58" s="4">
+        <v>7490415449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E59" s="4">
+        <v>7576441961</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E60" s="4">
+        <v>7660371127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E61" s="4">
+        <v>7741774583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E62" s="4">
+        <v>7820205606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E63" s="4">
+        <v>7888305693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E64" s="4">
+        <v>7950946801</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>